--- a/biology/Botanique/Prunus_cerasoides/Prunus_cerasoides.xlsx
+++ b/biology/Botanique/Prunus_cerasoides/Prunus_cerasoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus cerasoides est une espèce de plantes à fleurs du genre Prunus et de la famille des Rosaceae. C'est un arbre à feuilles caduques trouvé en Asie orientale. Son aire de répartition s'étend dans l'Himalaya de Himachal Pradesh en Inde jusqu'au sud-ouest de la Chine et en Birmanie. Il pousse dans les forêts de 1 200 à 2 400 mètres d'altitude.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de taille moyenne qui croît jusqu'à 30 mètres de hauteur. 
 Il fleurit en automne et en hiver, particulièrement en janvier et février. Les fleurs, hermaphrodites, sont d'un blanc rosé. 
